--- a/app/src/main/assets/test.xlsx
+++ b/app/src/main/assets/test.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackchen\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E609943D-C1B6-4062-A270-F487EC9A94AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -78,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -213,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -390,21 +384,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
@@ -412,7 +406,7 @@
     <col min="4" max="4" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -429,9 +423,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0.74305555555555547</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="B2" s="1">
         <v>6.9444444444444441E-3</v>
@@ -443,9 +437,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>0.77083333333333337</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="B3" s="1">
         <v>6.9444444444444447E-4</v>
@@ -457,9 +451,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>0.79166666666666663</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="B4" s="1">
         <v>2.4305555555555556E-3</v>
@@ -471,7 +465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -479,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -487,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>0</v>
       </c>

--- a/app/src/main/assets/test.xlsx
+++ b/app/src/main/assets/test.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidStudioProjects\jack\TimingAlarm\app\src\main\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ED8E21-FE90-40F7-9055-11A4E1A3E2FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,15 +71,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这么晚了，你吃饭了吗？</t>
+    <t>你好呀，小盆友！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家好!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好呀，少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +132,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,33 +405,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -423,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -437,7 +458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
@@ -451,9 +472,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1.0416666666666666E-2</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="B4" s="1">
         <v>2.4305555555555556E-3</v>
@@ -465,27 +486,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/app/src/main/assets/test.xlsx
+++ b/app/src/main/assets/test.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidStudioProjects\jack\TimingAlarm\app\src\main\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ED8E21-FE90-40F7-9055-11A4E1A3E2FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,30 +65,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大家好!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好呀，少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>你好呀，小盆友！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大家好!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好呀，少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>你好呀，小朋友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,21 +403,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
@@ -427,7 +425,7 @@
     <col min="4" max="4" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -444,7 +442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -457,8 +455,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
@@ -471,8 +472,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>0.39930555555555558</v>
       </c>
@@ -483,10 +487,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>0.43263888888888885</v>
       </c>
@@ -494,24 +501,33 @@
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.1574074074074073E-4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
